--- a/testSelenium/src/com/vincent/keyword/TestData1.xlsx
+++ b/testSelenium/src/com/vincent/keyword/TestData1.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Suite" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Steps" sheetId="2" r:id="rId2"/>
-    <sheet name="Settings" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Steps" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="PageName">[1]Settings!$A$2:$A$6</definedName>
@@ -27,63 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+  <si>
+    <t>login_001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>TestSuiteId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ts_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Runmode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Results</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>login_001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆场景测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>login_002</t>
-  </si>
-  <si>
-    <t>不运行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>login_003</t>
-  </si>
-  <si>
-    <t>login_004</t>
-  </si>
-  <si>
-    <t>login_005</t>
-  </si>
-  <si>
-    <t>TestSuiteId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ts_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -99,10 +55,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Results</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Ts_001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -210,46 +162,6 @@
   </si>
   <si>
     <t>CloseBrowser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Home_PageObject</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login_PageObject</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionKeyword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loginPage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Userbar_login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>homepage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Userbar_logout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input_password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login_button</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -329,83 +241,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -427,8 +278,8 @@
       <sheetName val="Settings"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="A2" t="str">
@@ -708,121 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D6">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
-      <formula>FAIL</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C6" xr:uid="{0D09140F-474C-4E28-9D58-4A11E29E56BF}">
-      <formula1>"YES,NO"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B7A21A-957D-4168-8B78-832EEF66C35E}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -833,192 +574,176 @@
     <col min="6" max="6" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G9">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"FAIL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
-      <formula>FAIL</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E9" xr:uid="{47003256-E0C6-413C-823E-52B07EEE6594}">
       <formula1>INDIRECT(D2)</formula1>
@@ -1029,118 +754,4 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88600F9B-F4AF-4F3D-98E6-418AE1AA46D9}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>